--- a/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1408068264203489</v>
+        <v>0.08031476372977074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1151312098026946</v>
+        <v>0.1081971085313596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.572417994519334</v>
+        <v>-3.581866451560431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.519519917587622</v>
+        <v>-3.469200648302971</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.461203166873957</v>
+        <v>-1.35442345142185</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.460252752757536</v>
+        <v>-1.339569177344635</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.131909473437271</v>
+        <v>2.144918857214249</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.124611916815326</v>
+        <v>2.248251003500668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7902816396593497</v>
+        <v>0.7777042676037791</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5023338004427869</v>
+        <v>0.5312082174571061</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.079987685228211</v>
+        <v>0.9877167105109039</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8747056429896726</v>
+        <v>0.8989040810121961</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3658884025423507</v>
+        <v>-0.3777233355710512</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4310703120926014</v>
+        <v>-0.499944679734408</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6015373647197848</v>
+        <v>-0.6009534673323732</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5984411056918824</v>
+        <v>-0.5876932257414427</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4455210849932591</v>
+        <v>-0.4256726441362622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4391360045035504</v>
+        <v>-0.4217097671552019</v>
       </c>
     </row>
     <row r="9">
@@ -741,16 +741,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>0.2242510392187591</v>
+        <v>0.2210738048289886</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.15759211604235</v>
+        <v>0.1487159895503044</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5616033852330082</v>
+        <v>0.473531245899953</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4490755848186938</v>
+        <v>0.4306586430187189</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.334827204198842</v>
+        <v>-1.291663055869499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.049208586351326</v>
+        <v>-2.008477958827511</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.898553300150794</v>
+        <v>-3.566356260593098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.112769901116042</v>
+        <v>-7.124323482938887</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.065063547636912</v>
+        <v>-1.97992539751625</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.216263888900738</v>
+        <v>-4.24461504122236</v>
       </c>
     </row>
     <row r="12">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.116749511005656</v>
+        <v>1.141182925972338</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.09816706433743148</v>
+        <v>-0.07255135113977614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.312590721109465</v>
+        <v>1.292099939820658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.939693304957395</v>
+        <v>-2.768948994780047</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8416212534422753</v>
+        <v>0.7719973932660982</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.747046014436136</v>
+        <v>-1.907025669813673</v>
       </c>
     </row>
     <row r="13">
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5705759162127864</v>
+        <v>-0.6137893381359831</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8552618157295094</v>
+        <v>-0.8547797970484106</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.380515918153115</v>
+        <v>-0.3612907259864487</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7101340244037395</v>
+        <v>-0.7097581376446301</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3443275805381379</v>
+        <v>-0.3449806040881871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6972806394543917</v>
+        <v>-0.7086928297673243</v>
       </c>
     </row>
     <row r="15">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.100954176676817</v>
+        <v>1.016248876159883</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05534977748442487</v>
+        <v>0.1163518439309706</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1928937775191858</v>
+        <v>0.1789393552576545</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3873799950682102</v>
+        <v>-0.3821499683871232</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1898394066523365</v>
+        <v>0.1813841506918258</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3888207750111247</v>
+        <v>-0.4045546170683716</v>
       </c>
     </row>
     <row r="16">
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2401709189166828</v>
+        <v>-0.2973472262592506</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.875092179466071</v>
+        <v>-2.874982383492148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.289095817087754</v>
+        <v>-1.210080324048</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.084671381407572</v>
+        <v>-4.864011044109344</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2178976461454899</v>
+        <v>-0.1815313207633669</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.334320431232613</v>
+        <v>-3.400304498832339</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.418821270124043</v>
+        <v>3.415493264198517</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.09247984579481094</v>
+        <v>-0.1469574746137769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.808578372534251</v>
+        <v>4.004724870660954</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.708072691307588</v>
+        <v>-0.7857111229157181</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.977770113179072</v>
+        <v>3.09170481814467</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.7480334174517785</v>
+        <v>-0.8047489773388755</v>
       </c>
     </row>
     <row r="19">
@@ -1029,22 +1029,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1281999384972047</v>
+        <v>-0.1901922702830721</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9469688230405152</v>
+        <v>-0.9217616206657273</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1921942210305641</v>
+        <v>-0.1734175527087199</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6852039613655074</v>
+        <v>-0.6777357920330354</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03735362020255154</v>
+        <v>-0.04443025337034762</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6910162678903718</v>
+        <v>-0.7100190657571198</v>
       </c>
     </row>
     <row r="21">
@@ -1055,22 +1055,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.961251314276586</v>
+        <v>3.027280246475139</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.0441712846968818</v>
+        <v>0.1358667061516742</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8077293551812165</v>
+        <v>0.9079931691322759</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.121220880038245</v>
+        <v>-0.1382384320134593</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9466048220013489</v>
+        <v>0.9309972715572381</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2162700768954975</v>
+        <v>-0.2431807783173289</v>
       </c>
     </row>
     <row r="22">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.769710906074584</v>
+        <v>-1.805487097281308</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.019109738212685</v>
+        <v>-3.847452660287635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.608621745002853</v>
+        <v>-2.71838541596228</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.611843672364717</v>
+        <v>-8.906097486050275</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.561053006198331</v>
+        <v>-1.83672657912702</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.920439864378781</v>
+        <v>-5.935899838729368</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.591408138827165</v>
+        <v>1.620183527138612</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.9909817894225027</v>
+        <v>-1.244154383412302</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.803965150864609</v>
+        <v>2.533903933416226</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-4.105671428710819</v>
+        <v>-4.144014917525462</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.552544407799075</v>
+        <v>1.6243570924708</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.192970787636042</v>
+        <v>-3.110098809493119</v>
       </c>
     </row>
     <row r="25">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.399663496165433</v>
+        <v>-0.3869783550618017</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8590825740684289</v>
+        <v>-0.8473152983608199</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2259603453425582</v>
+        <v>-0.2351747735677724</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7363198557913206</v>
+        <v>-0.7472268266896064</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2021292219229743</v>
+        <v>-0.2266666078016089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7449013451239611</v>
+        <v>-0.7371725191307021</v>
       </c>
     </row>
     <row r="27">
@@ -1215,22 +1215,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5756132549739514</v>
+        <v>0.6198146304356426</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3243718460865779</v>
+        <v>-0.4016076475591137</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.317556671764414</v>
+        <v>0.281886029733352</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.4488712054707553</v>
+        <v>-0.4596499987728263</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2517789998313801</v>
+        <v>0.2661225844791786</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5062284696254833</v>
+        <v>-0.4905687387982989</v>
       </c>
     </row>
     <row r="28">
@@ -1271,22 +1271,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.21131036495634</v>
+        <v>-0.2228402383893007</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.632122879429492</v>
+        <v>-1.705955495438767</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.692770044869533</v>
+        <v>-1.839053697628323</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.445216589310237</v>
+        <v>-5.441478349126013</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6988399293684993</v>
+        <v>-0.6570513005777088</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.302118656366956</v>
+        <v>-3.28256149988485</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.317570284694427</v>
+        <v>1.238803877077581</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4311560697714534</v>
+        <v>-0.4754106592013124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9252282594893593</v>
+        <v>0.8396041541985717</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.22201609182813</v>
+        <v>-3.207557586303284</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7905818759629958</v>
+        <v>0.8414808120918521</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.991661128619407</v>
+        <v>-2.048057147215487</v>
       </c>
     </row>
     <row r="31">
@@ -1349,22 +1349,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1040297280920146</v>
+        <v>-0.09368429509001239</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7005470392394185</v>
+        <v>-0.6993544316456142</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1966904038607445</v>
+        <v>-0.2092539872056561</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.634469733544854</v>
+        <v>-0.6352386791258641</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.128840071156849</v>
+        <v>-0.125700466439456</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6174393791663949</v>
+        <v>-0.6175099220286856</v>
       </c>
     </row>
     <row r="33">
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8058014214746123</v>
+        <v>0.7600035395630005</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2690628736185146</v>
+        <v>-0.2720622246425086</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1295163521195792</v>
+        <v>0.1194135912556523</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.4443849298221167</v>
+        <v>-0.4509634932585139</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1689994029145588</v>
+        <v>0.186932844855769</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4343404305367591</v>
+        <v>-0.4408298984570111</v>
       </c>
     </row>
     <row r="34">
